--- a/medicine/Mort/Terrorisme_en_2000/Terrorisme_en_2000.xlsx
+++ b/medicine/Mort/Terrorisme_en_2000/Terrorisme_en_2000.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chronologie du terrorisme
@@ -495,7 +507,7 @@
 2003
 2004
 ►►
-L'année 2000 a compté 1814 attaques terroristes. Elles ont causé la mort de 4422 personnes[1].
+L'année 2000 a compté 1814 attaques terroristes. Elles ont causé la mort de 4422 personnes.
 </t>
         </is>
       </c>
@@ -526,24 +538,123 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Janvier
-Février
-Mars
-Avril
-12 avril, Pakistan : des hommes armés tirent sur un groupe de musulmans chiites à Mulawali, faisant quinze morts et vingt blessés[2].
-19 avril, France : un attentat à Quévert, dans les Côtes-d'Armor, vise un restaurant McDonald's. Attribué à des indépendantistes bretons, cet attentat fait un mort, une employée du restaurant[3],[4].
-Mai
-Juin
-Juillet
-Août
-Septembre
-28 septembre, Israël : déclenchement de la seconde intifada[n 1]. Trente-neuf attentats sont répertoriés entre le 28 septembre et le 12 décembre 2001[5].
-Octobre
-12 octobre, Yémen : un attentat-suicide contre l'USS Cole, stationné au Yémen, fait dix-sept morts. Il est revendiqué par l'organisation terroriste al-Qaïda[6].
-Novembre
-Décembre
-22 décembre, Inde : le groupe terroriste Lashkar-e-Toiba tue deux soldats et un civil au Fort Rouge, à Delhi[réf. nécessaire].
-24 décembre, Indonésie : plusieurs explosions dans des églises, le jour du réveillon de Noël, font dix-neuf morts et cent vingt blessés à travers le pays[7],[8]. Ces attaques sont attribuées au groupe terroriste islamiste indonésien Jemaah Islamiyah[8].</t>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>12 avril, Pakistan : des hommes armés tirent sur un groupe de musulmans chiites à Mulawali, faisant quinze morts et vingt blessés.
+19 avril, France : un attentat à Quévert, dans les Côtes-d'Armor, vise un restaurant McDonald's. Attribué à des indépendantistes bretons, cet attentat fait un mort, une employée du restaurant,.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2000</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>28 septembre, Israël : déclenchement de la seconde intifada[n 1]. Trente-neuf attentats sont répertoriés entre le 28 septembre et le 12 décembre 2001.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2000</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2000</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>12 octobre, Yémen : un attentat-suicide contre l'USS Cole, stationné au Yémen, fait dix-sept morts. Il est revendiqué par l'organisation terroriste al-Qaïda.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Terrorisme_en_2000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Terrorisme_en_2000</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>22 décembre, Inde : le groupe terroriste Lashkar-e-Toiba tue deux soldats et un civil au Fort Rouge, à Delhi[réf. nécessaire].
+24 décembre, Indonésie : plusieurs explosions dans des églises, le jour du réveillon de Noël, font dix-neuf morts et cent vingt blessés à travers le pays,. Ces attaques sont attribuées au groupe terroriste islamiste indonésien Jemaah Islamiyah.</t>
         </is>
       </c>
     </row>
